--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7B9E94-22A2-4BE6-B1A6-78FA2D3D0272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A80BEA-9661-4EAF-8D39-B4AC952915B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A80BEA-9661-4EAF-8D39-B4AC952915B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D26609-0C4B-4AC7-BAEE-78C399A15BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
+    <workbookView xWindow="-1335" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>https://www.eztcp.com/en/download/pds_files/cseh53nen.pdf</t>
+  </si>
+  <si>
+    <t>Mettre en ordre le dépôt GIT et avec ça la création d'un README</t>
+  </si>
+  <si>
+    <t>Création d'un diagramme de cas d'utilisation en rapport avec le projet</t>
+  </si>
+  <si>
+    <t>Création d'un shéma réseau en rapport avec le projet</t>
+  </si>
+  <si>
+    <t>4h</t>
   </si>
 </sst>
 </file>
@@ -146,8 +158,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +509,7 @@
     <col min="4" max="4" width="62" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
@@ -508,20 +520,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>45803</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,9 +541,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -539,9 +551,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -549,165 +563,186 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>45804</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>45805</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>45806</v>
       </c>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>45807</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>45808</v>
       </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>45809</v>
       </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>45810</v>
       </c>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>45811</v>
-      </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>45812</v>
-      </c>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>45813</v>
-      </c>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>45814</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>45815</v>
+        <v>45812</v>
       </c>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
-        <v>45816</v>
+        <v>45813</v>
       </c>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
-        <v>45817</v>
+        <v>45814</v>
       </c>
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>45818</v>
+        <v>45815</v>
       </c>
       <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>45819</v>
+        <v>45816</v>
       </c>
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
-        <v>45820</v>
+        <v>45817</v>
       </c>
       <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
-        <v>45821</v>
+        <v>45818</v>
       </c>
       <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
-        <v>45822</v>
+        <v>45819</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>45823</v>
+        <v>45820</v>
       </c>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
-        <v>45824</v>
+        <v>45821</v>
       </c>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>45825</v>
+        <v>45822</v>
       </c>
       <c r="B27" s="8"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
-        <v>45826</v>
+        <v>45823</v>
       </c>
       <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>45827</v>
+        <v>45824</v>
       </c>
       <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
+        <v>45825</v>
+      </c>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>45828</v>
       </c>
-      <c r="B30" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
+  <mergeCells count="3">
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B5:B8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{DF417EC4-481B-4F4B-81E5-B6626A4923F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D26609-0C4B-4AC7-BAEE-78C399A15BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1CFAD2-CF4B-49F8-B7E2-43F2B39BD852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1335" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
+    <workbookView xWindow="2715" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>4h</t>
+  </si>
+  <si>
+    <t>Réflexion, conceptualisation et explication de l'IHM de l'application</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -154,12 +157,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,18 +507,19 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="5"/>
+    <col min="1" max="2" width="11.42578125" style="9"/>
     <col min="3" max="3" width="34" style="1" customWidth="1"/>
     <col min="4" max="4" width="62" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -521,10 +530,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>45803</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -532,8 +541,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +551,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -552,8 +561,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -564,172 +573,177 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>45804</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="11">
         <v>45805</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="11">
         <v>45806</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="11">
         <v>45807</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="11">
         <v>45808</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="11">
         <v>45809</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="11">
         <v>45810</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="11">
         <v>45811</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="11">
         <v>45812</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="11"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="11">
         <v>45813</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="11">
         <v>45814</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="11">
         <v>45815</v>
       </c>
-      <c r="B20" s="8"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="11">
         <v>45816</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="11">
         <v>45817</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="11">
         <v>45818</v>
       </c>
-      <c r="B23" s="8"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="11">
         <v>45819</v>
       </c>
-      <c r="B24" s="8"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="11">
         <v>45820</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="11">
         <v>45821</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="11">
         <v>45822</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="11">
         <v>45823</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="11">
         <v>45824</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="11">
         <v>45825</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="11">
         <v>45826</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="11">
         <v>45827</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="11">
         <v>45828</v>
       </c>
     </row>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1CFAD2-CF4B-49F8-B7E2-43F2B39BD852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96498386-2B73-4D72-9DAF-197468BA06C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Réflexion, conceptualisation et explication de l'IHM de l'application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listage et développement des tâches à réaliser pour le projet </t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Début de la planification théorique</t>
   </si>
 </sst>
 </file>
@@ -174,8 +183,35 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -504,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,10 +566,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>45803</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -541,8 +577,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +587,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -561,8 +597,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -573,8 +609,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
@@ -582,15 +618,15 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
@@ -599,160 +635,184 @@
       <c r="A9" s="11">
         <v>45804</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>45805</v>
       </c>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>45806</v>
       </c>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>45807</v>
       </c>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>45808</v>
       </c>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>45809</v>
       </c>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>45810</v>
       </c>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>45811</v>
       </c>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>45812</v>
       </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>45813</v>
       </c>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>45814</v>
       </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>45815</v>
       </c>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>45816</v>
       </c>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>45817</v>
       </c>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>45818</v>
       </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>45819</v>
       </c>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>45820</v>
       </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>45821</v>
       </c>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>45822</v>
       </c>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>45823</v>
       </c>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>45824</v>
       </c>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>45825</v>
       </c>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>45826</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>45827</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>45828</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:A9 A12:A1048576">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
+      <formula>FLOOR(A1,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{DF417EC4-481B-4F4B-81E5-B6626A4923F0}"/>
   </hyperlinks>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96498386-2B73-4D72-9DAF-197468BA06C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600BABDB-82DE-45F1-9C41-D93B4163C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Début de la planification théorique</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Gestion stage &amp; gestion recherche de stage</t>
   </si>
 </sst>
 </file>
@@ -183,25 +189,11 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -540,16 +532,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="9"/>
-    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="62" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -565,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>45803</v>
       </c>
@@ -660,155 +652,165 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>45805</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>45806</v>
-      </c>
+      <c r="A13" s="11"/>
       <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45807</v>
+        <v>45806</v>
       </c>
       <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>45808</v>
+        <v>45807</v>
       </c>
       <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>45809</v>
+        <v>45808</v>
       </c>
       <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>45810</v>
+        <v>45809</v>
       </c>
       <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>45811</v>
+        <v>45810</v>
       </c>
       <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>45812</v>
+        <v>45811</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>45813</v>
+        <v>45812</v>
       </c>
       <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>45815</v>
+        <v>45814</v>
       </c>
       <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>45817</v>
+        <v>45816</v>
       </c>
       <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>45818</v>
+        <v>45817</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>45819</v>
+        <v>45818</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>45820</v>
+        <v>45819</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>45821</v>
+        <v>45820</v>
       </c>
       <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>45822</v>
+        <v>45821</v>
       </c>
       <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
-        <v>45823</v>
+        <v>45822</v>
       </c>
       <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>45824</v>
+        <v>45823</v>
       </c>
       <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
+        <v>45824</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>45825</v>
       </c>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>45826</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>45827</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>45828</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12:A1048576">
+  <conditionalFormatting sqref="A1:A9 A12 A14:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600BABDB-82DE-45F1-9C41-D93B4163C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BBAEC-8A0A-40BF-A472-BE77064E1197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Gestion stage &amp; gestion recherche de stage</t>
+  </si>
+  <si>
+    <t>Continuation de la planification théorique</t>
+  </si>
+  <si>
+    <t>Recherche langage de programmation</t>
   </si>
 </sst>
 </file>
@@ -130,12 +136,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -182,6 +194,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -532,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,142 +678,156 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>45806</v>
-      </c>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>45807</v>
       </c>
       <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
+        <v>45807</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>45808</v>
       </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>45809</v>
-      </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>45810</v>
       </c>
       <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>45811</v>
+        <v>45810</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>45812</v>
+        <v>45811</v>
       </c>
       <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>45813</v>
+        <v>45812</v>
       </c>
       <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>45814</v>
+        <v>45813</v>
       </c>
       <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
+        <v>45814</v>
+      </c>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>45815</v>
       </c>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>45816</v>
       </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>45817</v>
-      </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>45818</v>
       </c>
       <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>45819</v>
+        <v>45818</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>45820</v>
+        <v>45819</v>
       </c>
       <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>45821</v>
+        <v>45820</v>
       </c>
       <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
+        <v>45821</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>45822</v>
       </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>45823</v>
-      </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>45824</v>
       </c>
       <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>45825</v>
+        <v>45824</v>
       </c>
       <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>45826</v>
-      </c>
+        <v>45825</v>
+      </c>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>45827</v>
+        <v>45826</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>45828</v>
       </c>
     </row>
@@ -808,9 +837,9 @@
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12 A14:A1048576">
+  <conditionalFormatting sqref="A1:A9 A12 A15:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BBAEC-8A0A-40BF-A472-BE77064E1197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFFEB16-69CB-4A88-A26D-04A4EF4BF023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Recherche langage de programmation</t>
+  </si>
+  <si>
+    <t>Recherche sur le JavaScript et C++</t>
   </si>
 </sst>
 </file>
@@ -193,10 +196,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,10 +576,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>45803</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -584,8 +587,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,8 +597,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -604,8 +607,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -616,8 +619,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
@@ -625,21 +628,21 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <v>45804</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -650,7 +653,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
@@ -659,7 +662,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -668,7 +671,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>45805</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -679,7 +682,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
@@ -688,7 +691,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -697,137 +700,150 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="12"/>
+      <c r="B15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>45806</v>
       </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>45807</v>
       </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>45808</v>
       </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>45809</v>
-      </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>45810</v>
-      </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>45811</v>
       </c>
       <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>45812</v>
+        <v>45810</v>
       </c>
       <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>45813</v>
+        <v>45811</v>
       </c>
       <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
+        <v>45812</v>
+      </c>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>45813</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>45814</v>
       </c>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>45815</v>
       </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>45816</v>
       </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>45817</v>
-      </c>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>45818</v>
-      </c>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>45819</v>
       </c>
       <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>45820</v>
+        <v>45818</v>
       </c>
       <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
+        <v>45819</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>45820</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>45821</v>
       </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>45822</v>
       </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>45823</v>
-      </c>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>45824</v>
-      </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>45825</v>
       </c>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>45826</v>
-      </c>
+        <v>45824</v>
+      </c>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>45827</v>
-      </c>
+        <v>45825</v>
+      </c>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>45828</v>
       </c>
     </row>
@@ -837,9 +853,9 @@
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A12:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12 A15:A1048576">
+  <conditionalFormatting sqref="A1:A9 A12 A17:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFFEB16-69CB-4A88-A26D-04A4EF4BF023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69942DC-1A55-4E75-B8B5-584910AEAFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Recherche sur le JavaScript et C++</t>
+  </si>
+  <si>
+    <t>Mise au point planning</t>
+  </si>
+  <si>
+    <t>Finalisation du planning</t>
+  </si>
+  <si>
+    <t>Documentation supplémentaire sur le convertisseur CSE-H53N</t>
   </si>
 </sst>
 </file>
@@ -550,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,152 +719,172 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>45806</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>45807</v>
       </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="B18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>45808</v>
       </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>45809</v>
       </c>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>45810</v>
       </c>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>45811</v>
       </c>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>45812</v>
       </c>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>45813</v>
       </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>45814</v>
       </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>45815</v>
       </c>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>45816</v>
       </c>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>45817</v>
       </c>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>45818</v>
       </c>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>45819</v>
       </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>45820</v>
       </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>45821</v>
-      </c>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>45822</v>
       </c>
       <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
+        <v>45822</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>45823</v>
-      </c>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>45824</v>
       </c>
       <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>45825</v>
+        <v>45824</v>
       </c>
       <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>45826</v>
-      </c>
+        <v>45825</v>
+      </c>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>45827</v>
+        <v>45826</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <v>45828</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12 A17:A1048576">
+  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\Stage_2025_ST_felixDL\Gestion projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69942DC-1A55-4E75-B8B5-584910AEAFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D9A9AA-D5CE-4694-9482-92D6FB5D4440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>Documentation supplémentaire sur le convertisseur CSE-H53N</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Vérification planning</t>
+  </si>
+  <si>
+    <t>2h30</t>
+  </si>
+  <si>
+    <t>Test de communication port série et ethernet du convertisseur</t>
+  </si>
+  <si>
+    <t>Recherche documentation afficheur pour la trame et de programmes pour socket</t>
   </si>
 </sst>
 </file>
@@ -559,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,118 +780,142 @@
       <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="12">
         <v>45810</v>
       </c>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>45811</v>
-      </c>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>45812</v>
-      </c>
-      <c r="B24" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>45813</v>
+        <v>45811</v>
       </c>
       <c r="B25" s="10"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
+        <v>45812</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>45813</v>
+      </c>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>45814</v>
-      </c>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>45815</v>
-      </c>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>45816</v>
       </c>
       <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
+        <v>45815</v>
+      </c>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>45816</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>45817</v>
-      </c>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>45818</v>
-      </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>45819</v>
       </c>
       <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>45820</v>
+        <v>45818</v>
       </c>
       <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
+        <v>45819</v>
+      </c>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>45820</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>45821</v>
       </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>45822</v>
       </c>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>45823</v>
-      </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>45824</v>
-      </c>
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>45825</v>
       </c>
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>45826</v>
-      </c>
+        <v>45824</v>
+      </c>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>45827</v>
-      </c>
+        <v>45825</v>
+      </c>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>45828</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A8"/>
@@ -884,7 +923,7 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A1048576">
+  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A25:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D9A9AA-D5CE-4694-9482-92D6FB5D4440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED2D954-2EFD-48FF-A31E-28993ED6E4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Recherche documentation afficheur pour la trame et de programmes pour socket</t>
+  </si>
+  <si>
+    <t>Affichage d'un message sur l'écran envoyé depuis ordinateur</t>
+  </si>
+  <si>
+    <t>Essayer d'envoyer message d'un socket client à un socket serveur sur QtCreator</t>
   </si>
 </sst>
 </file>
@@ -574,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,122 +814,140 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>45811</v>
-      </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>45812</v>
-      </c>
-      <c r="B26" s="10"/>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>45813</v>
+        <v>45811</v>
       </c>
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
+        <v>45812</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>45813</v>
+      </c>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>45814</v>
-      </c>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>45815</v>
-      </c>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>45816</v>
       </c>
       <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
+        <v>45815</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>45816</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>45817</v>
-      </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>45818</v>
-      </c>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>45819</v>
       </c>
       <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>45820</v>
+        <v>45818</v>
       </c>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
+        <v>45819</v>
+      </c>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>45820</v>
+      </c>
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>45821</v>
       </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>45822</v>
       </c>
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>45823</v>
-      </c>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>45824</v>
-      </c>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>45825</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>45826</v>
-      </c>
+        <v>45824</v>
+      </c>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>45827</v>
-      </c>
+        <v>45825</v>
+      </c>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
         <v>45828</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A25:A1048576">
+  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED2D954-2EFD-48FF-A31E-28993ED6E4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B2ABDE-AF74-4268-B109-579C4A9943F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Essayer d'envoyer message d'un socket client à un socket serveur sur QtCreator</t>
+  </si>
+  <si>
+    <t>Découverte et compréhension du CRC</t>
+  </si>
+  <si>
+    <t>Essai d'envoi de message depuis une application QtCreator sur l'afficheur</t>
   </si>
 </sst>
 </file>
@@ -580,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,116 +842,130 @@
       <c r="A27" s="10">
         <v>45811</v>
       </c>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>45812</v>
-      </c>
-      <c r="B28" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>45813</v>
+        <v>45812</v>
       </c>
       <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
+        <v>45813</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>45814</v>
-      </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>45815</v>
       </c>
       <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
+        <v>45816</v>
+      </c>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>45817</v>
-      </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>45818</v>
       </c>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>45819</v>
+        <v>45818</v>
       </c>
       <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>45820</v>
+        <v>45819</v>
       </c>
       <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
+        <v>45820</v>
+      </c>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <v>45821</v>
-      </c>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>45822</v>
       </c>
       <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
+        <v>45822</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>45823</v>
-      </c>
-      <c r="B39" s="10"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>45824</v>
       </c>
       <c r="B40" s="10"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>45825</v>
+        <v>45824</v>
       </c>
       <c r="B41" s="10"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>45826</v>
-      </c>
+        <v>45825</v>
+      </c>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>45827</v>
+        <v>45826</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>45828</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B2ABDE-AF74-4268-B109-579C4A9943F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA6ACA3-B31E-4EF1-A626-F0AB953CF3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Essai d'envoi de message depuis une application QtCreator sur l'afficheur</t>
+  </si>
+  <si>
+    <t>Développement application QtCreator avec l'interface + formation trame avec le checksum + creation BDD</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>Développement application avec intégration de la BDD à l'afficheur</t>
+  </si>
+  <si>
+    <t>Gérer la création et la suppression d'indice de la BDD depuis l'application</t>
   </si>
 </sst>
 </file>
@@ -586,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>45803</v>
       </c>
@@ -839,7 +851,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="12">
         <v>45811</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -850,115 +862,135 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="10" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>45812</v>
       </c>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="B29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <v>45813</v>
       </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="B30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>45814</v>
-      </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>45815</v>
       </c>
       <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>45816</v>
+        <v>45815</v>
       </c>
       <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
+        <v>45816</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>45817</v>
-      </c>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>45818</v>
       </c>
       <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>45819</v>
+        <v>45818</v>
       </c>
       <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>45820</v>
+        <v>45819</v>
       </c>
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
+        <v>45820</v>
+      </c>
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>45821</v>
-      </c>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>45822</v>
       </c>
       <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
+        <v>45822</v>
+      </c>
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>45823</v>
-      </c>
-      <c r="B40" s="10"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>45824</v>
       </c>
       <c r="B41" s="10"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>45825</v>
+        <v>45824</v>
       </c>
       <c r="B42" s="10"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>45826</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>45827</v>
+        <v>45826</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
         <v>45828</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B2:B4"/>
@@ -967,7 +999,7 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27:A1048576">
+  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29:A30 A32:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA6ACA3-B31E-4EF1-A626-F0AB953CF3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B9171B-653B-4CE5-98B3-3ECC7414C9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>Gérer la création et la suppression d'indice de la BDD depuis l'application</t>
+  </si>
+  <si>
+    <t>Implémentation menus déroulants de sélection et de tri des indices</t>
+  </si>
+  <si>
+    <t>Continuation du guide d'installation</t>
+  </si>
+  <si>
+    <t>Régler problème crash application</t>
   </si>
 </sst>
 </file>
@@ -598,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>45803</v>
       </c>
@@ -870,8 +879,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>45812</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -881,116 +890,142 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>45813</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10" t="s">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>45814</v>
       </c>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>45815</v>
       </c>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>45816</v>
       </c>
-      <c r="B34" s="10"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>45817</v>
       </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>45818</v>
       </c>
-      <c r="B36" s="10"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <v>45819</v>
       </c>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <v>45820</v>
       </c>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>45821</v>
       </c>
-      <c r="B39" s="10"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>45822</v>
       </c>
-      <c r="B40" s="10"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>45823</v>
       </c>
-      <c r="B41" s="10"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>45824</v>
       </c>
-      <c r="B42" s="10"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
         <v>45825</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
         <v>45826</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
         <v>45827</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
         <v>45828</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B2:B4"/>
@@ -998,8 +1033,10 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29:A30 A32:A1048576">
+  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29 A35:A1048576 A31">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\stage\Stage_2025_ST_felixDL\Gestion projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B9171B-653B-4CE5-98B3-3ECC7414C9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366A8846-16A4-4E88-BF85-A799BA19D820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Régler problème crash application</t>
+  </si>
+  <si>
+    <t>*3h</t>
+  </si>
+  <si>
+    <t>Demande de stage</t>
   </si>
 </sst>
 </file>
@@ -609,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +947,12 @@
       <c r="A35" s="10">
         <v>45814</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
@@ -1025,6 +1036,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A18:A19"/>
@@ -1033,10 +1046,8 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29 A35:A1048576 A31">
+  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29 A31 A35:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366A8846-16A4-4E88-BF85-A799BA19D820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127031D5-6730-418D-92E0-8DB3EC06CDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Demande de stage</t>
+  </si>
+  <si>
+    <t>Mise au point de l'application</t>
+  </si>
+  <si>
+    <t>Tentative d'amélioration de l'interface + réglage de bug</t>
+  </si>
+  <si>
+    <t>Implémentation de la modification des indices + Réglage de bug</t>
   </si>
 </sst>
 </file>
@@ -613,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,81 +982,105 @@
       <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="12">
         <v>45818</v>
       </c>
-      <c r="B39" s="10"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>45819</v>
-      </c>
-      <c r="B40" s="10"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>45820</v>
-      </c>
-      <c r="B41" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
+        <v>45819</v>
+      </c>
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>45820</v>
+      </c>
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
         <v>45821</v>
       </c>
-      <c r="B42" s="10"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
         <v>45822</v>
       </c>
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
         <v>45823</v>
       </c>
-      <c r="B44" s="10"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>45824</v>
-      </c>
-      <c r="B45" s="10"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>45825</v>
-      </c>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>45826</v>
-      </c>
+        <v>45824</v>
+      </c>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>45827</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <v>45828</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A16"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29 A31 A35:A1048576">
+  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29 A31 A35:A39 A42:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127031D5-6730-418D-92E0-8DB3EC06CDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E219860-4301-4C48-ADF4-AF820B9DE8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Implémentation de la modification des indices + Réglage de bug</t>
+  </si>
+  <si>
+    <t>Début écriture manuel installation</t>
   </si>
 </sst>
 </file>
@@ -624,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1017,12 @@
       <c r="A42" s="10">
         <v>45819</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="10">

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E219860-4301-4C48-ADF4-AF820B9DE8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B0AC04-0FA9-4066-B568-A8C3A9030632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Début écriture manuel installation</t>
+  </si>
+  <si>
+    <t>Réglage de l'interface + essayer de corriger bug modification</t>
   </si>
 </sst>
 </file>
@@ -625,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1017,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="12">
         <v>45819</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -1024,58 +1027,68 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>45820</v>
-      </c>
-      <c r="B43" s="10"/>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
+        <v>45820</v>
+      </c>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>45821</v>
-      </c>
-      <c r="B44" s="10"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>45822</v>
       </c>
       <c r="B45" s="10"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
+        <v>45822</v>
+      </c>
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>45823</v>
-      </c>
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>45824</v>
       </c>
       <c r="B47" s="10"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>45825</v>
-      </c>
+        <v>45824</v>
+      </c>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>45826</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>45827</v>
+        <v>45826</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
         <v>45828</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A8"/>
@@ -1088,7 +1101,7 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A18:A19"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29 A31 A35:A39 A42:A1048576">
+  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29 A31 A35:A39 A42 A44:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B0AC04-0FA9-4066-B568-A8C3A9030632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B6ABDC-E4D5-4D18-811C-40556642F852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Réglage de l'interface + essayer de corriger bug modification</t>
+  </si>
+  <si>
+    <t>Essayer corriger bug modification</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1043,12 @@
       <c r="A44" s="10">
         <v>45820</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="10">

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B6ABDC-E4D5-4D18-811C-40556642F852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D99C9-159F-40D1-87BF-ECA3FB2B9D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -189,6 +189,21 @@
   </si>
   <si>
     <t>Essayer corriger bug modification</t>
+  </si>
+  <si>
+    <t>Correction bug modification + Mise au point</t>
+  </si>
+  <si>
+    <t>Réflexion amélioration de l'interface</t>
+  </si>
+  <si>
+    <t>Intégration d'ouverture d'un PDF</t>
+  </si>
+  <si>
+    <t>Début d'amélioration de l'interface</t>
+  </si>
+  <si>
+    <t>Écriture et intégration d'images au guide d'installation</t>
   </si>
 </sst>
 </file>
@@ -631,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,52 +1065,90 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
         <v>45821</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>45822</v>
       </c>
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>45823</v>
       </c>
-      <c r="B47" s="10"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <v>45824</v>
       </c>
-      <c r="B48" s="10"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="B51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
         <v>45825</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
         <v>45826</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
         <v>45827</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
         <v>45828</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A45:A48"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="B2:B4"/>
@@ -1109,7 +1162,7 @@
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A18:A19"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29 A31 A35:A39 A42 A44:A1048576">
+  <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29 A31 A35:A39 A42 A44:A45 A49:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Stage\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D99C9-159F-40D1-87BF-ECA3FB2B9D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C516A667-55BD-469D-8CB4-CFF10A2DC513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Implémentation de la modification des indices + Réglage de bug</t>
   </si>
   <si>
-    <t>Début écriture manuel installation</t>
-  </si>
-  <si>
     <t>Réglage de l'interface + essayer de corriger bug modification</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>Écriture et intégration d'images au guide d'installation</t>
+  </si>
+  <si>
+    <t>6h</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -297,6 +297,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4521D194-E84C-4CFA-9C75-1EDA66349D08}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,21 +1041,17 @@
       <c r="A42" s="12">
         <v>45819</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
-      <c r="B43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
@@ -1062,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1073,7 +1072,7 @@
         <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,7 +1081,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1091,7 +1090,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,10 +1119,10 @@
         <v>45824</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,7 +1146,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="C42:C43"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A39:A41"/>
@@ -1161,6 +1161,7 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A9 A12 A17:A18 A20:A22 A27 A29 A31 A35:A39 A42 A44:A45 A49:A1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">

--- a/Gestion projet/suivi_projet.xlsx
+++ b/Gestion projet/suivi_projet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Stage\Stage_2025_ST_felixDL\Gestion projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\Stage_2025_ST_felixDL\Gestion projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C516A667-55BD-469D-8CB4-CFF10A2DC513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA6AA09-4CF1-487C-9BD5-6BDF7C996358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{701D3BB8-75BD-43D3-8126-0FBE5F0BB179}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>Lecture de la documentation de l'afficheur à LED défilant Mc Crypt n°590996</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>6h</t>
+  </si>
+  <si>
+    <t>Fin d'écriture du guide d'installation</t>
+  </si>
+  <si>
+    <t>Crash test application et réglage de bugs</t>
+  </si>
+  <si>
+    <t>Réorganisation interface + optimisation de l'utilisation de la gestion d'indices</t>
   </si>
 </sst>
 </file>
@@ -295,11 +304,11 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -652,7 +661,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,10 +684,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>45803</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -686,8 +695,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,8 +705,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,8 +715,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -718,8 +727,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
@@ -727,21 +736,21 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="13">
         <v>45804</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -752,7 +761,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
@@ -761,7 +770,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -770,7 +779,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="13">
         <v>45805</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -781,7 +790,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
@@ -790,7 +799,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -799,7 +808,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -808,7 +817,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
@@ -823,7 +832,7 @@
       <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="13">
         <v>45807</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -834,7 +843,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -855,7 +864,7 @@
       <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="13">
         <v>45810</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -866,7 +875,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
@@ -875,7 +884,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="10" t="s">
         <v>19</v>
       </c>
@@ -884,7 +893,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
@@ -893,7 +902,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="10" t="s">
         <v>17</v>
       </c>
@@ -902,7 +911,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="13">
         <v>45811</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -913,7 +922,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="10" t="s">
         <v>37</v>
       </c>
@@ -922,7 +931,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="13">
         <v>45812</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -933,7 +942,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
         <v>9</v>
       </c>
@@ -942,7 +951,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="13">
         <v>45813</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -953,7 +962,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="10" t="s">
         <v>17</v>
       </c>
@@ -962,7 +971,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="10" t="s">
         <v>17</v>
       </c>
@@ -971,7 +980,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="10" t="s">
         <v>19</v>
       </c>
@@ -1009,7 +1018,7 @@
       <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="13">
         <v>45818</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -1020,7 +1029,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="10" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1038,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="10" t="s">
         <v>14</v>
       </c>
@@ -1038,20 +1047,20 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="13">
         <v>45819</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
@@ -1065,7 +1074,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="A45" s="13">
         <v>45821</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -1076,7 +1085,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="10" t="s">
         <v>9</v>
       </c>
@@ -1085,7 +1094,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="10" t="s">
         <v>17</v>
       </c>
@@ -1094,7 +1103,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="10" t="s">
         <v>19</v>
       </c>
@@ -1129,15 +1138,33 @@
       <c r="A52" s="10">
         <v>45825</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>45826</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>45827</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
